--- a/biology/Botanique/Jardin_xérophile/Jardin_xérophile.xlsx
+++ b/biology/Botanique/Jardin_xérophile/Jardin_xérophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_x%C3%A9rophile</t>
+          <t>Jardin_xérophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin xérophile est un jardin qui, de par ses espèces xérophiles et ses aménagements particuliers, est adapté à un milieu climatique sec ou désertique, en vue de réduire l'usage de l'irrigation. Les jardins xérophiles ont été conçus en 1978 par Denver Waters, l'agence publique d'administration des eaux de la ville de Denver (Colorado).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_x%C3%A9rophile</t>
+          <t>Jardin_xérophile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La constitution d'un jardin xérophile se fait selon sept principes :
-Planification[1] : elle commence par un diagramme représentant les éléments essentiels du terrain, y compris les maisons, les routes, les arbres etc. Suit ensuite une première ébauche (graphique à bulles) qui inclut les zones de pelouse, les vues, les pentes etc.
+Planification : elle commence par un diagramme représentant les éléments essentiels du terrain, y compris les maisons, les routes, les arbres etc. Suit ensuite une première ébauche (graphique à bulles) qui inclut les zones de pelouse, les vues, les pentes etc.
 Choix des sols amendés : la plupart des plantes tirent parti du l'usage du compost, qui les aide à retenir l'eau, mais certaines plantes désertiques préfèrent des sols à graviers. Il s'agit donc d'adapter le sol aux plantes, ou l'inverse.
 Mise en place d'un système d'irrigation : l'objectif est d'optimiser la consommation d'eau, souvent par un système d'arrosage automatique et par le choix d'une méthode efficace d'irrigation (vaporisateur, barboteur, rotor...), qui réduit l'évaporation de l'eau (pas d'arrosage de jour ou les jours de pluie) et favorise la création de racines profondes (arrosage irrégulier et profond).
 Choix des zones de plantage et des espèces de plantes : en groupant les plantes qui ont des besoins similaires, et en plaçant les plus fragiles à l'ombre de plantes plus grandes par exemple.
